--- a/rosters/2023/New York/New York.xlsx
+++ b/rosters/2023/New York/New York.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>No.</t>
   </si>
@@ -49,46 +49,40 @@
     <t>Julius Randle</t>
   </si>
   <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Jericho Sims</t>
+  </si>
+  <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Jericho Sims</t>
-  </si>
-  <si>
-    <t>Miles McBride</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
     <t>Evan Fournier</t>
   </si>
   <si>
-    <t>Svi Mykhailiuk</t>
-  </si>
-  <si>
-    <t>Ryan Arcidiacono</t>
+    <t>Josh Hart</t>
   </si>
   <si>
     <t>Trevor Keels (TW)</t>
@@ -100,27 +94,24 @@
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
@@ -145,46 +136,40 @@
     <t>November 29, 1994</t>
   </si>
   <si>
+    <t>May 5, 1998</t>
+  </si>
+  <si>
     <t>June 17, 1999</t>
   </si>
   <si>
-    <t>May 5, 1998</t>
-  </si>
-  <si>
     <t>August 31, 1996</t>
   </si>
   <si>
     <t>June 14, 2000</t>
   </si>
   <si>
+    <t>May 8, 2000</t>
+  </si>
+  <si>
+    <t>October 20, 1998</t>
+  </si>
+  <si>
+    <t>September 8, 2000</t>
+  </si>
+  <si>
+    <t>March 4, 1998</t>
+  </si>
+  <si>
     <t>April 1, 1998</t>
   </si>
   <si>
-    <t>May 8, 2000</t>
-  </si>
-  <si>
-    <t>October 20, 1998</t>
-  </si>
-  <si>
-    <t>September 8, 2000</t>
-  </si>
-  <si>
-    <t>March 4, 1998</t>
-  </si>
-  <si>
     <t>October 4, 1988</t>
   </si>
   <si>
-    <t>September 1, 1999</t>
-  </si>
-  <si>
     <t>October 29, 1992</t>
   </si>
   <si>
-    <t>June 10, 1997</t>
-  </si>
-  <si>
-    <t>March 26, 1994</t>
+    <t>March 6, 1995</t>
   </si>
   <si>
     <t>August 26, 2003</t>
@@ -202,18 +187,15 @@
     <t>fr</t>
   </si>
   <si>
-    <t>ua</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -241,73 +223,64 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Kansas, Houston</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
     <t>Western Kentucky</t>
   </si>
   <si>
-    <t>Kansas, Houston</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Dayton</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Oral Roberts, Tulsa</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/randlju01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/harteis01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/q/quickim01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/harteis01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/brunsja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/barrerj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/grimequ01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/simsje01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mcbrimi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/toppiob01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/robinmi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/grimequ01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/simsje01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mcbrimi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/toppiob01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/rosede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/reddica01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/f/fournev01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mykhasv01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/arcidry01.html</t>
+    <t>https://www.basketball-reference.com/players/h/hartjo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/keelstr01.html</t>
@@ -684,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,28 +706,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -762,34 +735,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -797,31 +767,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
-        <v>65</v>
+      <c r="J4" t="s">
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,28 +808,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,28 +843,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -899,34 +872,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,34 +907,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,34 +942,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1004,34 +977,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,34 +1012,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1080,28 +1053,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1109,34 +1082,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,31 +1114,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1176,43 +1149,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
         <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1220,92 +1190,25 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
-        <v>221</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18">
-        <v>230</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1325,8 +1228,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/New York/New York.xlsx
+++ b/rosters/2023/New York/New York.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>No.</t>
   </si>
@@ -64,15 +64,15 @@
     <t>Quentin Grimes</t>
   </si>
   <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
     <t>Jericho Sims</t>
   </si>
   <si>
-    <t>Miles McBride</t>
-  </si>
-  <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
     <t>Mitchell Robinson</t>
   </si>
   <si>
@@ -85,10 +85,13 @@
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>Trevor Keels (TW)</t>
-  </si>
-  <si>
-    <t>DaQuan Jeffries (TW)</t>
+    <t>Duane Washington Jr. (TW)</t>
+  </si>
+  <si>
+    <t>DaQuan Jeffries</t>
+  </si>
+  <si>
+    <t>Moses Brown (TW)</t>
   </si>
   <si>
     <t>PF</t>
@@ -121,18 +124,21 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>7-2</t>
+  </si>
+  <si>
     <t>November 29, 1994</t>
   </si>
   <si>
@@ -151,15 +157,15 @@
     <t>May 8, 2000</t>
   </si>
   <si>
+    <t>March 4, 1998</t>
+  </si>
+  <si>
+    <t>September 8, 2000</t>
+  </si>
+  <si>
     <t>October 20, 1998</t>
   </si>
   <si>
-    <t>September 8, 2000</t>
-  </si>
-  <si>
-    <t>March 4, 1998</t>
-  </si>
-  <si>
     <t>April 1, 1998</t>
   </si>
   <si>
@@ -172,12 +178,15 @@
     <t>March 6, 1995</t>
   </si>
   <si>
-    <t>August 26, 2003</t>
+    <t>March 24, 2000</t>
   </si>
   <si>
     <t>August 30, 1997</t>
   </si>
   <si>
+    <t>October 13, 1999</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -187,31 +196,7 @@
     <t>fr</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>de</t>
   </si>
   <si>
     <t>Kentucky</t>
@@ -226,24 +211,30 @@
     <t>Kansas, Houston</t>
   </si>
   <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Dayton</t>
-  </si>
-  <si>
     <t>Western Kentucky</t>
   </si>
   <si>
     <t>Memphis</t>
   </si>
   <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
     <t>Oral Roberts, Tulsa</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/randlju01.html</t>
   </si>
   <si>
@@ -262,15 +253,15 @@
     <t>https://www.basketball-reference.com/players/g/grimequ01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/toppiob01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mcbrimi01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/simsje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mcbrimi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/toppiob01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/robinmi01.html</t>
   </si>
   <si>
@@ -283,10 +274,13 @@
     <t>https://www.basketball-reference.com/players/h/hartjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/keelstr01.html</t>
+    <t>https://www.basketball-reference.com/players/w/washidu02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jeffrda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/brownmo01.html</t>
   </si>
 </sst>
 </file>
@@ -657,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,28 +700,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
         <v>57</v>
       </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -741,25 +735,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -773,28 +767,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -808,28 +802,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -843,28 +837,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -878,28 +872,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -907,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -916,25 +910,25 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -948,28 +942,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -977,34 +971,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1018,28 +1012,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1053,28 +1047,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1088,25 +1082,25 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1120,63 +1114,60 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1187,28 +1178,60 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>245</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1228,6 +1251,7 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/New York/New York.xlsx
+++ b/rosters/2023/New York/New York.xlsx
@@ -55,12 +55,12 @@
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Quentin Grimes</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>6-3</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>June 17, 1999</t>
   </si>
   <si>
+    <t>June 14, 2000</t>
+  </si>
+  <si>
     <t>August 31, 1996</t>
   </si>
   <si>
-    <t>June 14, 2000</t>
-  </si>
-  <si>
     <t>May 8, 2000</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Kansas, Houston</t>
   </si>
   <si>
@@ -244,10 +244,10 @@
     <t>https://www.basketball-reference.com/players/q/quickim01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/barrerj01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brunsja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/barrerj01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/grimequ01.html</t>
@@ -796,28 +796,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
@@ -831,28 +831,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>63</v>
@@ -1132,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>85</v>

--- a/rosters/2023/New York/New York.xlsx
+++ b/rosters/2023/New York/New York.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -46,6 +46,48 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0, 3</t>
+  </si>
+  <si>
     <t>Julius Randle</t>
   </si>
   <si>
@@ -70,12 +112,12 @@
     <t>Miles McBride</t>
   </si>
   <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
     <t>Jericho Sims</t>
   </si>
   <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
     <t>Derrick Rose</t>
   </si>
   <si>
@@ -85,15 +127,15 @@
     <t>Josh Hart</t>
   </si>
   <si>
+    <t>Trevor Keels (TW)</t>
+  </si>
+  <si>
     <t>Duane Washington Jr. (TW)</t>
   </si>
   <si>
     <t>DaQuan Jeffries</t>
   </si>
   <si>
-    <t>Moses Brown (TW)</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -136,9 +178,6 @@
     <t>6-7</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
     <t>November 29, 1994</t>
   </si>
   <si>
@@ -163,12 +202,12 @@
     <t>September 8, 2000</t>
   </si>
   <si>
+    <t>April 1, 1998</t>
+  </si>
+  <si>
     <t>October 20, 1998</t>
   </si>
   <si>
-    <t>April 1, 1998</t>
-  </si>
-  <si>
     <t>October 4, 1988</t>
   </si>
   <si>
@@ -178,15 +217,15 @@
     <t>March 6, 1995</t>
   </si>
   <si>
+    <t>August 26, 2003</t>
+  </si>
+  <si>
     <t>March 24, 2000</t>
   </si>
   <si>
     <t>August 30, 1997</t>
   </si>
   <si>
-    <t>October 13, 1999</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -199,6 +238,15 @@
     <t>de</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -217,12 +265,12 @@
     <t>West Virginia</t>
   </si>
   <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Western Kentucky</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
@@ -232,9 +280,6 @@
     <t>Oral Roberts, Tulsa</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/randlju01.html</t>
   </si>
   <si>
@@ -259,12 +304,12 @@
     <t>https://www.basketball-reference.com/players/m/mcbrimi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/robinmi01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/simsje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/robinmi01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/rosede01.html</t>
   </si>
   <si>
@@ -274,13 +319,13 @@
     <t>https://www.basketball-reference.com/players/h/hartjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/keelstr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/washidu02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jeffrda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/brownmo01.html</t>
   </si>
 </sst>
 </file>
@@ -693,481 +738,484 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>30</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>55</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>9</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>23</v>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>13</v>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1175,31 +1223,31 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1207,31 +1255,31 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/New York/New York.xlsx
+++ b/rosters/2023/New York/New York.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -46,24 +46,24 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -76,36 +76,36 @@
     <t>45</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>0, 3</t>
   </si>
   <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Immanuel Quickley</t>
+  </si>
+  <si>
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Isaiah Hartenstein</t>
-  </si>
-  <si>
-    <t>Immanuel Quickley</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
     <t>Jalen Brunson</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
     <t>Obi Toppin</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>Jericho Sims</t>
   </si>
   <si>
+    <t>Evan Fournier</t>
+  </si>
+  <si>
     <t>Derrick Rose</t>
   </si>
   <si>
-    <t>Evan Fournier</t>
-  </si>
-  <si>
     <t>Josh Hart</t>
   </si>
   <si>
@@ -136,36 +136,39 @@
     <t>DaQuan Jeffries</t>
   </si>
   <si>
+    <t>Isaiah Roby</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -178,24 +181,24 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>May 5, 1998</t>
+  </si>
+  <si>
+    <t>June 17, 1999</t>
+  </si>
+  <si>
     <t>November 29, 1994</t>
   </si>
   <si>
-    <t>May 5, 1998</t>
-  </si>
-  <si>
-    <t>June 17, 1999</t>
-  </si>
-  <si>
     <t>June 14, 2000</t>
   </si>
   <si>
+    <t>May 8, 2000</t>
+  </si>
+  <si>
     <t>August 31, 1996</t>
   </si>
   <si>
-    <t>May 8, 2000</t>
-  </si>
-  <si>
     <t>March 4, 1998</t>
   </si>
   <si>
@@ -208,12 +211,12 @@
     <t>October 20, 1998</t>
   </si>
   <si>
+    <t>October 29, 1992</t>
+  </si>
+  <si>
     <t>October 4, 1988</t>
   </si>
   <si>
-    <t>October 29, 1992</t>
-  </si>
-  <si>
     <t>March 6, 1995</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
     <t>August 30, 1997</t>
   </si>
   <si>
+    <t>February 3, 1998</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -253,12 +259,12 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Kansas, Houston</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Kansas, Houston</t>
-  </si>
-  <si>
     <t>Dayton</t>
   </si>
   <si>
@@ -280,24 +286,27 @@
     <t>Oral Roberts, Tulsa</t>
   </si>
   <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/harteis01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/q/quickim01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/randlju01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/harteis01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/q/quickim01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/barrerj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/grimequ01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brunsja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/grimequ01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/toppiob01.html</t>
   </si>
   <si>
@@ -310,12 +319,12 @@
     <t>https://www.basketball-reference.com/players/s/simsje01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/f/fournev01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/rosede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/fournev01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hartjo01.html</t>
   </si>
   <si>
@@ -326,6 +335,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jeffrda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/robyis01.html</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,28 +757,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -780,25 +789,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -812,28 +824,28 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -847,28 +859,28 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -882,28 +894,28 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -917,28 +929,28 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -952,28 +964,28 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -990,25 +1002,25 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1031,19 +1043,19 @@
         <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1060,25 +1072,25 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1092,28 +1104,25 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1127,25 +1136,28 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
         <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
@@ -1168,19 +1180,19 @@
         <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1194,7 +1206,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -1203,19 +1215,19 @@
         <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1226,7 +1238,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1235,19 +1247,19 @@
         <v>210</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1258,7 +1270,7 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1267,19 +1279,51 @@
         <v>230</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>230</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1300,6 +1344,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
